--- a/public/assets/templates/presenters.xlsx
+++ b/public/assets/templates/presenters.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://quidlab1-my.sharepoint.com/personal/bank_quidlab_com/Documents/Work/Foqus/agmdev/admin/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Quidlab\FOQQUS\public\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_D4E65460519E59F3AC9FC9EF9D0176B07B36B250" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DE2D7B1-2DD6-4371-A6DC-378F4100000B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C946BEB2-2DED-41CD-B47B-3AEB51C2B46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="1275" windowWidth="13500" windowHeight="9345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="6576" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -25,36 +36,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>uname</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>title</t>
   </si>
   <si>
-    <t>first name</t>
-  </si>
-  <si>
-    <t>last name</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
     <t>role</t>
   </si>
   <si>
-    <t>phone</t>
+    <t>user-name</t>
+  </si>
+  <si>
+    <t>first-name</t>
+  </si>
+  <si>
+    <t>last-name</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>adwl</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>adel</t>
+  </si>
+  <si>
+    <t>labeb</t>
+  </si>
+  <si>
+    <t>awd@easf.sef</t>
+  </si>
+  <si>
+    <t>Guest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -76,13 +112,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -395,38 +434,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>1515485</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{C85BE5C1-73EF-4F79-9ADE-5F328ADA497F}"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -437,6 +502,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="3be8370e-d599-4dd6-bdb8-9d7dc02bc162" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="901b05ca-5b25-4e82-beb8-27a229517a74">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C717AB5E36194D4F89A9E5E285642D2D" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="db0f0614dd0c0a6d40ab3dbbeda7b5c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3be8370e-d599-4dd6-bdb8-9d7dc02bc162" xmlns:ns3="901b05ca-5b25-4e82-beb8-27a229517a74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0e39bae3ed7e38f830a0398e4a3e8755" ns2:_="" ns3:_="">
     <xsd:import namespace="3be8370e-d599-4dd6-bdb8-9d7dc02bc162"/>
@@ -679,7 +755,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -688,25 +764,40 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="3be8370e-d599-4dd6-bdb8-9d7dc02bc162" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="901b05ca-5b25-4e82-beb8-27a229517a74">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6608A90E-1F57-4A40-8B7C-ED75CC0102CD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92BCFFB9-9A94-4486-98E2-67E7A3A50E74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3be8370e-d599-4dd6-bdb8-9d7dc02bc162"/>
+    <ds:schemaRef ds:uri="901b05ca-5b25-4e82-beb8-27a229517a74"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77387526-7186-406B-AA06-44D381C66C4A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6608A90E-1F57-4A40-8B7C-ED75CC0102CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3be8370e-d599-4dd6-bdb8-9d7dc02bc162"/>
+    <ds:schemaRef ds:uri="901b05ca-5b25-4e82-beb8-27a229517a74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92BCFFB9-9A94-4486-98E2-67E7A3A50E74}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77387526-7186-406B-AA06-44D381C66C4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>